--- a/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,499 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2840</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,13 +1365,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,32 +1422,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1685</t>
+          <t>0.2840</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -996,500 +1460,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -532,6 +549,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1043,7 +1610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,7 +1932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002873-新天药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1610,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1932,7 +2043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
